--- a/Основы профессиональной деятельности/Системы счисления.xlsx
+++ b/Основы профессиональной деятельности/Системы счисления.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Documents\ВУЗ\Основы профессиональной деятельности\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{531079B2-6880-485F-AED2-3181EFFCE536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298043F3-DA8D-4126-89E9-6C1775344E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{0EDA9DCF-5BD0-4AB5-B8C4-7756113228EF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="В десятичную" sheetId="1" r:id="rId1"/>
+    <sheet name="Из десятичной" sheetId="2" r:id="rId2"/>
+    <sheet name="Сложение" sheetId="3" r:id="rId3"/>
+    <sheet name="Индивидуальное" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="b">'Из десятичной'!$K$7</definedName>
+    <definedName name="N">'Из десятичной'!$B$10</definedName>
+    <definedName name="Z">'Из десятичной'!$B$18</definedName>
+    <definedName name="а">'В десятичную'!$B$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,27 +44,106 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+  <si>
+    <t>Перевод чисел из системы счисления с основанием B в десятичную систему счисления</t>
+  </si>
+  <si>
+    <t>Основание В</t>
+  </si>
+  <si>
+    <t>Десятичное</t>
+  </si>
+  <si>
+    <t>Целая часть</t>
+  </si>
+  <si>
+    <t>Дробная часть</t>
+  </si>
+  <si>
+    <t>В-ичная запись числа</t>
+  </si>
+  <si>
+    <t>В=</t>
+  </si>
+  <si>
+    <t>Основание системы</t>
+  </si>
+  <si>
+    <t>Перевод чисел из десятичной системы счисления в систему с основанием В</t>
+  </si>
+  <si>
+    <t>N=</t>
+  </si>
+  <si>
+    <t>Целая часть N десятичного числа</t>
+  </si>
+  <si>
+    <t>Z=</t>
+  </si>
+  <si>
+    <t>Дробная часть Z десятичного числа</t>
+  </si>
+  <si>
+    <t>Сложение чисел в системе с заданным основанием</t>
+  </si>
+  <si>
+    <t>Целая часть B-ичного числа</t>
+  </si>
+  <si>
+    <t>Дробная часть B-ичного числа</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>сумма</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -63,12 +151,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -87,9 +336,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -97,42 +346,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -162,29 +411,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -214,26 +446,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -292,6 +507,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -300,13 +522,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -371,44 +586,1582 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D504908-D1F1-44FA-AEE2-D482B3212655}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:AS16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="19.1328125" customWidth="1"/>
+    <col min="25" max="25" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="U6" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A7" s="11"/>
+      <c r="B7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A8" s="11"/>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2">
+        <v>4</v>
+      </c>
+      <c r="U8" s="2">
+        <v>2</v>
+      </c>
+      <c r="V8" s="2">
+        <v>6</v>
+      </c>
+      <c r="W8" s="2">
+        <v>4</v>
+      </c>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="11"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+    </row>
+    <row r="10" spans="1:45" hidden="1" x14ac:dyDescent="0.45">
+      <c r="D10">
+        <f t="shared" ref="D10:V10" si="0">E10*а</f>
+        <v>1.1398895185373144E+16</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1628413597910449</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>232630513987207</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>33232930569601</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>4747561509943</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>678223072849</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>96889010407</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>13841287201</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1977326743</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>282475249</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>40353607</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>5764801</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>823543</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>117649</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>16807</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>2401</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>343</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <f>1/а</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" ref="Z10:AR10" si="1">Y10/а</f>
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="1"/>
+        <v>2.9154518950437317E-3</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="1"/>
+        <v>4.1649312786339027E-4</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="1"/>
+        <v>5.9499018266198613E-5</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="1"/>
+        <v>8.4998597523140868E-6</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="1"/>
+        <v>1.2142656789020123E-6</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="1"/>
+        <v>1.7346652555743034E-7</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="1"/>
+        <v>2.4780932222490048E-8</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="1"/>
+        <v>3.5401331746414354E-9</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="1"/>
+        <v>5.0573331066306222E-10</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="1"/>
+        <v>7.2247615809008885E-11</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="1"/>
+        <v>1.0321087972715555E-11</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="1"/>
+        <v>1.4744411389593651E-12</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="1"/>
+        <v>2.1063444842276645E-13</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="1"/>
+        <v>3.0090635488966635E-14</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="1"/>
+        <v>4.2986622127095194E-15</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="1"/>
+        <v>6.1409460181564566E-16</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="1"/>
+        <v>8.7727800259377946E-17</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="1"/>
+        <v>1.253254289419685E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A14" s="11"/>
+      <c r="B14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A15" s="11"/>
+      <c r="B15" s="1">
+        <f>SUMPRODUCT(D8:W8,D10:W10)+SUMPRODUCT(Y8:AR8,Y10:AR10)</f>
+        <v>1516.9933956089724</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:X21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" customWidth="1"/>
+    <col min="22" max="23" width="2.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="G6" s="11"/>
+      <c r="H6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="13">
+        <v>7</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>541</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="1" t="e">
+        <f>IF(SUM($D$12:D12)=0,””,D12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="1" t="e">
+        <f>IF(SUM($D$12:E12)=0,””,E12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" s="1" t="e">
+        <f>IF(SUM($D$12:F12)=0,””,F12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" s="1" t="e">
+        <f>IF(SUM($D$12:G12)=0,””,G12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H10" s="1" t="e">
+        <f>IF(SUM($D$12:H12)=0,””,H12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I10" s="1" t="e">
+        <f>IF(SUM($D$12:I12)=0,””,I12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J10" s="1" t="e">
+        <f>IF(SUM($D$12:J12)=0,””,J12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K10" s="1" t="e">
+        <f>IF(SUM($D$12:K12)=0,””,K12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L10" s="1" t="e">
+        <f>IF(SUM($D$12:L12)=0,””,L12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M10" s="1" t="e">
+        <f>IF(SUM($D$12:M12)=0,””,M12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N10" s="1" t="e">
+        <f>IF(SUM($D$12:N12)=0,””,N12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O10" s="1" t="e">
+        <f>IF(SUM($D$12:O12)=0,””,O12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P10" s="1" t="e">
+        <f>IF(SUM($D$12:P12)=0,””,P12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q10" s="1" t="e">
+        <f>IF(SUM($D$12:Q12)=0,””,Q12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R10" s="1" t="e">
+        <f>IF(SUM($D$12:R12)=0,””,R12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S10" s="1" t="e">
+        <f>IF(SUM($D$12:S12)=0,””,S12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T10" s="1">
+        <f>IF(SUM($D$12:T12)=0,””,T12)</f>
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <f>IF(SUM($D$12:U12)=0,””,U12)</f>
+        <v>4</v>
+      </c>
+      <c r="V10" s="1">
+        <f>IF(SUM($D$12:V12)=0,””,V12)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <f>W12</f>
+        <v>2</v>
+      </c>
+      <c r="X10" s="11"/>
+    </row>
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
+      <c r="D11">
+        <f t="shared" ref="D11:V11" si="0">INT(E11/b)</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="W11">
+        <f>INT(N/b)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
+      <c r="D12">
+        <f t="shared" ref="D12:V12" si="1">MOD(E11,b)</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f>MOD(N,b)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="1">
+        <f>INT(D19)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:V18" si="2">INT(E19)</f>
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="W18" s="1">
+        <f>INT(W19)</f>
+        <v>5</v>
+      </c>
+      <c r="X18" s="11"/>
+    </row>
+    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
+      <c r="D19">
+        <f>b*Z</f>
+        <v>1.3096999999999999</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:W19" si="3">b*D20</f>
+        <v>2.1678999999999991</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>1.1752999999999934</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>1.2270999999999535</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>1.5896999999996742</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>4.1278999999977195</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0.89529999998403653</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>6.2670999998882557</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>1.8696999992177901</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>6.0878999945245305</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>0.61529996167171319</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>4.3070997317019923</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>2.1496981219139464</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>1.0478868533976247</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>0.33520797378337264</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>2.3464558164836085</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>2.4251907153852592</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="3"/>
+        <v>2.9763350076968145</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="3"/>
+        <v>6.8343450538777013</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="3"/>
+        <v>5.8404153771439091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D20">
+        <f>D19 - D18</f>
+        <v>0.30969999999999986</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:W20" si="4">E19 - E18</f>
+        <v>0.16789999999999905</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>0.17529999999999335</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>0.22709999999995345</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>0.58969999999967415</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>0.1278999999977195</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0.89529999998403653</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>0.26709999988825572</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>0.86969999921779007</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>8.7899994524530456E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>0.61529996167171319</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>0.30709973170199234</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>0.14969812191394638</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>4.7886853397624662E-2</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="4"/>
+        <v>0.33520797378337264</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>0.34645581648360846</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="4"/>
+        <v>0.42519071538525921</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="4"/>
+        <v>0.97633500769681447</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="4"/>
+        <v>0.8343450538777013</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="4"/>
+        <v>0.84041537714390913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:AD12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="18" max="18" width="3.59765625" customWidth="1"/>
+    <col min="35" max="35" width="24.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A7" s="11"/>
+      <c r="B7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A8" s="11"/>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>6</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="7">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>4</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="11"/>
+    </row>
+    <row r="9" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8">
+        <v>2</v>
+      </c>
+      <c r="K9" s="8">
+        <v>3</v>
+      </c>
+      <c r="L9" s="8">
+        <v>3</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="10">
+        <v>5</v>
+      </c>
+      <c r="O9" s="8">
+        <v>4</v>
+      </c>
+      <c r="P9" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>3</v>
+      </c>
+      <c r="R9" s="8">
+        <v>6</v>
+      </c>
+      <c r="S9" s="8">
+        <v>3</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="11"/>
+    </row>
+    <row r="10" spans="1:30" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="11"/>
+      <c r="B10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:AB10" si="0">MOD(E12+D8+D9,$B$8)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R10" s="4">
+        <f>MOD(S12+R8+R9,$B$8)</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <f>MOD(AD12+AC8+AC9,$B$8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="11"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+    </row>
+    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.45">
+      <c r="D12">
+        <f t="shared" ref="D12:AB12" si="1">INT((D9+D8+E12)/$B$8)</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f>INT((AC9+AC8+AD12)/$B$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.265625" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>855.80629999999996</v>
+      </c>
+      <c r="B1" s="1">
+        <v>698.89757659999998</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2331.5433632502099</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>661.18709999999999</v>
+      </c>
+      <c r="B2" s="1">
+        <v>541.21963119999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1633.1211140616001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>1627.1043999999999</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B1+B2</f>
+        <v>1240.1172078</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4264.6645099999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>1240.1172079999999</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>1516.9933960000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>